--- a/rokumon/checklist.xlsx
+++ b/rokumon/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/rokumon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298692C2-3DAB-1042-9A07-C39283CF93FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F919BEF9-8D58-D24C-9337-C265894E1FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{EE4C63EE-A5A8-7A41-9633-4D750A136749}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>やりすぎ射手と燃える森</t>
   </si>
   <si>
-    <t>overkill archers.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Overdoing Archers and the Burning Forest </t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>scarlet_symphony1.jpg</t>
+  </si>
+  <si>
+    <t>overkill_archers.jpg</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,13 +870,13 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -887,16 +887,16 @@
         <v>2006</v>
       </c>
       <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -907,16 +907,16 @@
         <v>2006</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -927,16 +927,16 @@
         <v>2007</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -947,16 +947,16 @@
         <v>2007</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -967,16 +967,16 @@
         <v>2007</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -987,16 +987,16 @@
         <v>2007</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1007,16 +1007,16 @@
         <v>2008</v>
       </c>
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1027,16 +1027,16 @@
         <v>2008</v>
       </c>
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1047,16 +1047,16 @@
         <v>2008</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -1067,16 +1067,16 @@
         <v>2008</v>
       </c>
       <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
       </c>
       <c r="F22" t="s">
         <v>32</v>
@@ -1087,16 +1087,16 @@
         <v>2009</v>
       </c>
       <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
       </c>
       <c r="F23" t="s">
         <v>32</v>
